--- a/erp_summary2.xlsx
+++ b/erp_summary2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timmcmullin/Documents/Python/coop research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37F26033-4D6B-3A48-B18F-75DCDB2BC033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{28B1155C-6FA5-6143-8F88-4F5CE1DAD02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16920" xr2:uid="{E8A2104E-BA1F-B94E-86EC-D7FB5F124755}"/>
   </bookViews>
@@ -1143,9 +1143,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99B5E51-4675-B947-BE8C-E9438904B43B}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1172,36 +1177,36 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -1213,75 +1218,81 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F6">
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1296,35 +1307,38 @@
         <v>90</v>
       </c>
       <c r="F7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1333,21 +1347,21 @@
         <v>0.9</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1356,13 +1370,13 @@
         <v>0.9</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>90</v>
       </c>
       <c r="F10">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -1370,33 +1384,36 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1405,15 +1422,15 @@
         <v>90</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1428,35 +1445,38 @@
         <v>90</v>
       </c>
       <c r="F13">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1465,13 +1485,13 @@
         <v>0.9</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>90</v>
       </c>
       <c r="F15">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>28</v>
@@ -1479,27 +1499,30 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -1514,21 +1537,21 @@
         <v>90</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -1537,15 +1560,15 @@
         <v>90</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -1557,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -1568,7 +1591,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -1577,47 +1600,50 @@
         <v>0.9</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -1626,110 +1652,116 @@
         <v>90</v>
       </c>
       <c r="F22">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>90</v>
       </c>
       <c r="F26">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>90</v>
@@ -1738,52 +1770,58 @@
         <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -1798,236 +1836,230 @@
         <v>90</v>
       </c>
       <c r="F30">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>90</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D32">
         <v>10</v>
       </c>
       <c r="E32">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F32">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>10</v>
-      </c>
-      <c r="G37" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>10</v>
-      </c>
-      <c r="G38" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C40">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>90</v>
-      </c>
-      <c r="G40" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -2047,76 +2079,67 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C42">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>10</v>
-      </c>
-      <c r="G42" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C43">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>10</v>
-      </c>
-      <c r="G43" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C44">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>40</v>
-      </c>
-      <c r="G44" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -2136,30 +2159,27 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C46">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -2179,248 +2199,233 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>72</v>
       </c>
-      <c r="B48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>0.9</v>
-      </c>
-      <c r="D49">
-        <v>10</v>
-      </c>
-      <c r="E49">
-        <v>90</v>
-      </c>
-      <c r="F49">
-        <v>30</v>
-      </c>
-      <c r="G49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50">
-        <v>0.1</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>10</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>76</v>
       </c>
-      <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>77</v>
       </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>78</v>
       </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>79</v>
       </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55">
-        <v>0.9</v>
-      </c>
-      <c r="D55">
-        <v>10</v>
-      </c>
-      <c r="E55">
-        <v>90</v>
-      </c>
-      <c r="F55">
-        <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>82</v>
       </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57">
-        <v>0.8</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>90</v>
-      </c>
-      <c r="F57">
-        <v>50</v>
-      </c>
-      <c r="G57" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58">
-        <v>0.8</v>
-      </c>
-      <c r="D58">
-        <v>10</v>
-      </c>
-      <c r="E58">
-        <v>80</v>
-      </c>
-      <c r="F58">
-        <v>10</v>
-      </c>
-      <c r="G58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>85</v>
-      </c>
       <c r="B59" t="s">
         <v>12</v>
       </c>
       <c r="C59">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2432,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -2453,6 +2458,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G60">
+    <sortCondition descending="1" ref="C2:C60"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>